--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-889971.83855725</v>
+        <v>-840561.5082533015</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17416836.60718618</v>
+        <v>16775128.44796222</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9765064.986960119</v>
+        <v>9777419.639983227</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>320.0331481255876</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>348.4197255069323</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>409.8232904944065</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>105.2666242787484</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -829,13 +829,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>8.129390960577833</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -896,7 +896,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>63.58070035666352</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -905,7 +905,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -914,7 +914,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>246.1443044162227</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>27.97358346682135</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>139.0273081995169</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>315.572787009945</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>60.69092040857829</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>144.5737182147131</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>43.48898701015895</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1370,19 +1370,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>414.7170701731979</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>272.5782349523031</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1537,13 +1537,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>105.2666242787486</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>57.17380082342405</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1613,7 +1613,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1661,7 +1661,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561535</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>155.2257542598713</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1777,10 +1777,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170436</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1859,7 +1859,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>45.76594660771036</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>94.50264048967837</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>144.4937753855477</v>
+        <v>214.3693806674597</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2482,19 +2482,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>141.0670894717352</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>16.05512456153167</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>122.9742767430578</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3187,10 +3187,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3199,13 +3199,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34318456170469</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>212.6072792671026</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C37" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E37" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G37" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432491</v>
+        <v>71.53763939432362</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934451</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277822</v>
+        <v>122.2674422277812</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934451</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E43" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934451</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925396</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277812</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432395</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934444</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.640221925911</v>
+        <v>899.1792123544138</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>865.0771435782412</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>429.1673587526857</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>1329.724502499264</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.9397924108188</v>
+        <v>921.4383787989176</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1024.341879988165</v>
+        <v>826.9659278567121</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>654.4042163399371</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>488.5262235414597</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>318.768219792197</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>269.215608100497</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1688.971924059632</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1688.971924059632</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1443.580169393044</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1216.160498707152</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>844.0044704481411</v>
+        <v>1298.040072665448</v>
       </c>
       <c r="C5" t="n">
-        <v>809.9024016719685</v>
+        <v>1233.817143012253</v>
       </c>
       <c r="D5" t="n">
-        <v>778.0330208868171</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E5" t="n">
-        <v>748.2986800855164</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F5" t="n">
-        <v>724.4716545351282</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1393.464329137293</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1134.24202645431</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1134.24202645431</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>885.6114159328727</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X5" t="n">
-        <v>870.5093565525874</v>
+        <v>1728.585362810299</v>
       </c>
       <c r="Y5" t="n">
-        <v>866.2636368926449</v>
+        <v>1320.299239109952</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>851.7801684713901</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>269.215608100497</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>851.7801684713901</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>851.7801684713901</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>851.7801684713901</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>851.7801684713901</v>
+        <v>1160.715522056491</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1778.03356784162</v>
+        <v>866.5213804116893</v>
       </c>
       <c r="C8" t="n">
-        <v>1339.891095025044</v>
+        <v>832.4193116355167</v>
       </c>
       <c r="D8" t="n">
-        <v>903.981310199488</v>
+        <v>800.5499308503653</v>
       </c>
       <c r="E8" t="n">
-        <v>470.2065653577832</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F8" t="n">
-        <v>42.33913576699094</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>42.33913576699094</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>42.33913576699094</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>42.33913576699094</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>42.33913576699094</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>375.9623082469514</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>899.9091133634643</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>899.9091133634643</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>899.9091133634643</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="O8" t="n">
-        <v>899.9091133634643</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="P8" t="n">
-        <v>1423.855918479977</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1947.80272359649</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>2116.956788349547</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2116.956788349547</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2116.956788349547</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2116.956788349547</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>2116.956788349547</v>
+        <v>2525.1049926066</v>
       </c>
       <c r="W8" t="n">
-        <v>2116.141737800984</v>
+        <v>2120.249538017633</v>
       </c>
       <c r="X8" t="n">
-        <v>2101.039678420699</v>
+        <v>1701.107074596944</v>
       </c>
       <c r="Y8" t="n">
-        <v>2096.793958760757</v>
+        <v>1292.820950896597</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>548.5108807582837</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>442.054419594926</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>346.9641307414793</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>252.843716068433</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>169.4598776845946</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>84.07478795077847</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>42.33913576699094</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>68.40280892744853</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>392.9611338936609</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>392.9611338936609</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>392.9611338936609</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>392.9611338936609</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>392.9611338936609</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>540.5125089184344</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.459314034947</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1588.40611915146</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1705.5788972458</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1642.123459694183</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1511.944816024785</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1335.608269024753</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1136.490751086752</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>951.1679968199462</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>796.3005610588261</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>669.8147818380469</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.3731945697315</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C10" t="n">
-        <v>42.33913576699094</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D10" t="n">
-        <v>42.33913576699094</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E10" t="n">
-        <v>42.33913576699094</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F10" t="n">
-        <v>42.33913576699094</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G10" t="n">
-        <v>42.33913576699094</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>42.33913576699094</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>42.33913576699094</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>42.33913576699094</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>317.0975903381266</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>735.3074721060876</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1194.791339287</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1637.050142444645</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2056.719391670427</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2116.956788349547</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2116.956788349547</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2095.538967054919</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1936.297598352915</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1690.418151931371</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U10" t="n">
-        <v>1411.985151184476</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V10" t="n">
-        <v>1125.029643054906</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W10" t="n">
-        <v>853.0032386411979</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X10" t="n">
-        <v>607.6114839746103</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.1918132887186</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1648.259012753633</v>
+        <v>2063.091575182023</v>
       </c>
       <c r="C11" t="n">
-        <v>1229.352881265554</v>
+        <v>1624.949102365447</v>
       </c>
       <c r="D11" t="n">
-        <v>793.4430964399987</v>
+        <v>1189.039317539891</v>
       </c>
       <c r="E11" t="n">
-        <v>359.6683515982938</v>
+        <v>1189.039317539891</v>
       </c>
       <c r="F11" t="n">
-        <v>359.6683515982938</v>
+        <v>761.1718879490987</v>
       </c>
       <c r="G11" t="n">
-        <v>359.6683515982938</v>
+        <v>359.7740565723626</v>
       </c>
       <c r="H11" t="n">
-        <v>70.53819704151009</v>
+        <v>70.64390201557886</v>
       </c>
       <c r="I11" t="n">
-        <v>70.53819704151009</v>
+        <v>70.64390201557886</v>
       </c>
       <c r="J11" t="n">
-        <v>70.53819704151009</v>
+        <v>505.8985894684968</v>
       </c>
       <c r="K11" t="n">
-        <v>904.888488999688</v>
+        <v>1340.248881426675</v>
       </c>
       <c r="L11" t="n">
-        <v>1777.798677388375</v>
+        <v>2157.386439986952</v>
       </c>
       <c r="M11" t="n">
-        <v>1777.798677388375</v>
+        <v>2157.386439986952</v>
       </c>
       <c r="N11" t="n">
-        <v>1777.798677388375</v>
+        <v>2157.386439986952</v>
       </c>
       <c r="O11" t="n">
-        <v>2650.708865777063</v>
+        <v>2157.386439986952</v>
       </c>
       <c r="P11" t="n">
-        <v>3479.018740610459</v>
+        <v>2985.696314820348</v>
       </c>
       <c r="Q11" t="n">
-        <v>3479.018740610459</v>
+        <v>3532.195100778943</v>
       </c>
       <c r="R11" t="n">
-        <v>3526.909852075505</v>
+        <v>3532.195100778943</v>
       </c>
       <c r="S11" t="n">
-        <v>3526.909852075505</v>
+        <v>3532.195100778943</v>
       </c>
       <c r="T11" t="n">
-        <v>3306.842624948543</v>
+        <v>3532.195100778943</v>
       </c>
       <c r="U11" t="n">
-        <v>3306.842624948543</v>
+        <v>3532.195100778943</v>
       </c>
       <c r="V11" t="n">
-        <v>3306.842624948543</v>
+        <v>3169.578150712769</v>
       </c>
       <c r="W11" t="n">
-        <v>2901.987170359576</v>
+        <v>2764.722696123803</v>
       </c>
       <c r="X11" t="n">
-        <v>2482.844706938887</v>
+        <v>2764.722696123803</v>
       </c>
       <c r="Y11" t="n">
-        <v>2074.55858323854</v>
+        <v>2489.391145666931</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.7099420328029</v>
+        <v>576.8156470068717</v>
       </c>
       <c r="C12" t="n">
-        <v>470.2534808694452</v>
+        <v>470.359185843514</v>
       </c>
       <c r="D12" t="n">
-        <v>375.1631920159984</v>
+        <v>375.2688969900672</v>
       </c>
       <c r="E12" t="n">
-        <v>281.0427773429521</v>
+        <v>281.1484823170209</v>
       </c>
       <c r="F12" t="n">
-        <v>197.6589389591138</v>
+        <v>197.7646439331825</v>
       </c>
       <c r="G12" t="n">
-        <v>112.2738492252976</v>
+        <v>112.3795541993664</v>
       </c>
       <c r="H12" t="n">
-        <v>70.53819704151009</v>
+        <v>70.64390201557886</v>
       </c>
       <c r="I12" t="n">
-        <v>96.60187020196769</v>
+        <v>96.70757517603646</v>
       </c>
       <c r="J12" t="n">
-        <v>421.1601951681801</v>
+        <v>421.2659001422488</v>
       </c>
       <c r="K12" t="n">
-        <v>1075.866241793904</v>
+        <v>1075.971946767972</v>
       </c>
       <c r="L12" t="n">
-        <v>1075.866241793904</v>
+        <v>1075.971946767972</v>
       </c>
       <c r="M12" t="n">
-        <v>1075.866241793904</v>
+        <v>1075.971946767972</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.866241793904</v>
+        <v>1075.971946767972</v>
       </c>
       <c r="O12" t="n">
-        <v>1075.866241793904</v>
+        <v>1075.971946767972</v>
       </c>
       <c r="P12" t="n">
-        <v>1075.866241793904</v>
+        <v>1075.971946767972</v>
       </c>
       <c r="Q12" t="n">
-        <v>1616.605180425979</v>
+        <v>1616.710885400048</v>
       </c>
       <c r="R12" t="n">
-        <v>1733.777958520319</v>
+        <v>1733.883663494388</v>
       </c>
       <c r="S12" t="n">
-        <v>1670.322520968702</v>
+        <v>1670.428225942771</v>
       </c>
       <c r="T12" t="n">
-        <v>1540.143877299304</v>
+        <v>1540.249582273372</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.807330299272</v>
+        <v>1363.913035273341</v>
       </c>
       <c r="V12" t="n">
-        <v>1164.689812361271</v>
+        <v>1164.79551733534</v>
       </c>
       <c r="W12" t="n">
-        <v>979.3670580944654</v>
+        <v>979.4727630685341</v>
       </c>
       <c r="X12" t="n">
-        <v>824.4996223333453</v>
+        <v>824.6053273074141</v>
       </c>
       <c r="Y12" t="n">
-        <v>698.0138431125661</v>
+        <v>698.1195480866348</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.4328318834807</v>
+        <v>972.9950085892165</v>
       </c>
       <c r="C13" t="n">
-        <v>777.8711203667058</v>
+        <v>800.4332970724414</v>
       </c>
       <c r="D13" t="n">
-        <v>611.9931275682286</v>
+        <v>634.5553042739641</v>
       </c>
       <c r="E13" t="n">
-        <v>442.2351238189658</v>
+        <v>464.7973005247014</v>
       </c>
       <c r="F13" t="n">
-        <v>265.528069780722</v>
+        <v>464.7973005247014</v>
       </c>
       <c r="G13" t="n">
-        <v>159.1981462668348</v>
+        <v>299.206025550529</v>
       </c>
       <c r="H13" t="n">
-        <v>159.1981462668348</v>
+        <v>159.3038512409035</v>
       </c>
       <c r="I13" t="n">
-        <v>70.53819704151009</v>
+        <v>70.64390201557886</v>
       </c>
       <c r="J13" t="n">
-        <v>157.1178822061999</v>
+        <v>157.2235871802687</v>
       </c>
       <c r="K13" t="n">
-        <v>431.8763367773356</v>
+        <v>431.9820417514043</v>
       </c>
       <c r="L13" t="n">
-        <v>850.0862185452966</v>
+        <v>850.1919235193653</v>
       </c>
       <c r="M13" t="n">
-        <v>1309.57008572621</v>
+        <v>1309.675790700278</v>
       </c>
       <c r="N13" t="n">
-        <v>1751.828888883854</v>
+        <v>1751.934593857923</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.498138109635</v>
+        <v>2171.603843083704</v>
       </c>
       <c r="P13" t="n">
-        <v>2519.005032079977</v>
+        <v>2519.110737054046</v>
       </c>
       <c r="Q13" t="n">
-        <v>2687.19780694431</v>
+        <v>2687.303511918378</v>
       </c>
       <c r="R13" t="n">
-        <v>2665.779985649682</v>
+        <v>2665.88569062375</v>
       </c>
       <c r="S13" t="n">
-        <v>2506.538616947678</v>
+        <v>2506.644321921747</v>
       </c>
       <c r="T13" t="n">
-        <v>2260.659170526133</v>
+        <v>2260.764875500202</v>
       </c>
       <c r="U13" t="n">
-        <v>1982.226169779238</v>
+        <v>1982.331874753307</v>
       </c>
       <c r="V13" t="n">
-        <v>1695.270661649669</v>
+        <v>1695.376366623738</v>
       </c>
       <c r="W13" t="n">
-        <v>1423.24425723596</v>
+        <v>1637.625052660683</v>
       </c>
       <c r="X13" t="n">
-        <v>1177.852502569373</v>
+        <v>1392.233297994095</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.4328318834807</v>
+        <v>1164.813627308204</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
         <v>1221.073045167952</v>
@@ -5285,7 +5285,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
         <v>2588.899621423628</v>
@@ -5309,19 +5309,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>811.7546776883914</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C16" t="n">
-        <v>639.1929661716164</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>473.3149733731391</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5569696238763</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>126.8499155856325</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5464,22 +5464,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173566</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759858</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X16" t="n">
-        <v>1230.99296709327</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y16" t="n">
-        <v>1003.573296407379</v>
+        <v>1249.452742828923</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5513,28 +5513,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674088</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E19" t="n">
-        <v>673.121292818146</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
         <v>190.9207894961043</v>
@@ -5695,28 +5695,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1454.96690046523</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1227.547229779338</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,46 +5753,46 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136697</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>1057.634124109936</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405613</v>
+        <v>885.0724125931612</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420841</v>
+        <v>719.1944197946839</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928213</v>
+        <v>549.4364160454211</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545776</v>
+        <v>372.7293620071773</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>207.138087033005</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2594.704009018976</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U28" t="n">
-        <v>2316.271008272081</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V28" t="n">
-        <v>2029.315500142511</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W28" t="n">
-        <v>1757.289095728803</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.897341062215</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.477670376324</v>
+        <v>1249.452742828923</v>
       </c>
     </row>
     <row r="29">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6704,13 +6704,13 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2412.031452783383</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O32" t="n">
         <v>3569.079287993933</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883918</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716167</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731394</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238766</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>126.8499155856328</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6886,22 +6886,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2344.924253929048</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2066.491253182153</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1779.535745052583</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1507.509340638875</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1262.117585972288</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1034.697915286396</v>
       </c>
     </row>
     <row r="35">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.521048992529</v>
+        <v>1066.521048992528</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886296</v>
+        <v>910.3590448886287</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030285</v>
+        <v>760.8807595030275</v>
       </c>
       <c r="E37" t="n">
-        <v>607.522463166642</v>
+        <v>607.5224631666409</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412746</v>
+        <v>447.2151165412733</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799784</v>
+        <v>298.0235489799771</v>
       </c>
       <c r="H37" t="n">
-        <v>174.521082083229</v>
+        <v>174.5210820832277</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7108,37 +7108,37 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751065</v>
+        <v>2299.660900751064</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956767</v>
+        <v>2663.241147956766</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174707</v>
+        <v>2842.489162174706</v>
       </c>
       <c r="S37" t="n">
-        <v>2699.64750088558</v>
+        <v>2699.647500885579</v>
       </c>
       <c r="T37" t="n">
-        <v>2470.167761876911</v>
+        <v>2470.16776187691</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542892</v>
+        <v>2208.134468542891</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826199</v>
+        <v>1937.578667826198</v>
       </c>
       <c r="W37" t="n">
-        <v>1681.951970825367</v>
+        <v>1681.951970825366</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571655</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y37" t="n">
-        <v>1241.93996029864</v>
+        <v>1241.939960298639</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835857</v>
+        <v>755.295274783585</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197257</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581808</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
         <v>97.56670367581785</v>
@@ -7187,13 +7187,13 @@
         <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245845</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079241</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037836</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
         <v>4878.335183790892</v>
@@ -7208,7 +7208,7 @@
         <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750117</v>
       </c>
       <c r="W38" t="n">
         <v>3629.919912574026</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936681</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080667</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E40" t="n">
-        <v>602.82832657168</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463123</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G40" t="n">
-        <v>293.329412385016</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H40" t="n">
         <v>169.8269454882664</v>
@@ -7348,34 +7348,34 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976694</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
@@ -7409,25 +7409,25 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>931.9169956339958</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>2006.976961886855</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>3164.024797097406</v>
       </c>
       <c r="N41" t="n">
-        <v>2900.691577634134</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="O41" t="n">
-        <v>3880.87124420444</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="P41" t="n">
-        <v>4709.181119037836</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q41" t="n">
         <v>4709.181119037836</v>
@@ -7439,22 +7439,22 @@
         <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="42">
@@ -7546,34 +7546,34 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080659</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716793</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463117</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
         <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758674</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823628</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856838</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
@@ -7585,7 +7585,7 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
         <v>2842.813139461497</v>
@@ -7594,19 +7594,19 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976693</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206709</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390329</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.7629969615</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835853</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
@@ -7646,19 +7646,19 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>97.56670367581785</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>1172.626669928677</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>1228.461808239092</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
         <v>3334.372458245845</v>
@@ -7673,25 +7673,25 @@
         <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
         <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403412</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574024</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.29074027874</v>
       </c>
     </row>
     <row r="45">
@@ -7783,22 +7783,22 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716794</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463119</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850156</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
         <v>97.56670367581785</v>
@@ -7837,7 +7837,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V46" t="n">
         <v>1932.884531231236</v>
@@ -7846,7 +7846,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y46" t="n">
         <v>1237.245823703677</v>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,22 +8137,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,22 +8374,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8453,28 +8453,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>336.9931035151116</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>529.2391970873867</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="P8" t="n">
-        <v>529.2391970873867</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>529.2391970873869</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>149.0417929543167</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>529.2391970873867</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>529.2391970873869</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>60.8458552314346</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>881.7274630188763</v>
+        <v>825.3914732932092</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,16 +8702,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>881.7274630188763</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>48.37486006570271</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,19 +9401,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>756.3484258820586</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -10352,16 +10352,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>1050.672356668189</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>901.152332228356</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11066,19 +11066,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>463.0908366609706</v>
+        <v>1008.744985840238</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11294,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>56.39912960647962</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>901.152332228356</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>5.127748292075867</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>19.04397791521302</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>131.62502751104</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>58.66873794568201</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>212.1323395461473</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>34.67467827192596</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.389715538153044e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>144.1344859240869</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>69.71657238081416</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>139.5921776627261</v>
+        <v>69.71657238081411</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>33.87289402612615</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>122.4480280049976</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>120.4463752142715</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>30.81337269022669</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-3.268496584496461e-13</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>856696.3220180958</v>
+        <v>861042.057037785</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>856696.3220180958</v>
+        <v>861684.9228411627</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>858848.784114982</v>
+        <v>861684.9228411627</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>657501.8430023112</v>
+        <v>658165.5316178533</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93825.78098082151</v>
+        <v>93754.3514471129</v>
       </c>
       <c r="C2" t="n">
         <v>93825.78098082151</v>
@@ -26320,40 +26320,40 @@
         <v>93825.78098082151</v>
       </c>
       <c r="E2" t="n">
-        <v>70763.68188092418</v>
+        <v>70835.1114146328</v>
       </c>
       <c r="F2" t="n">
+        <v>92200.07722403668</v>
+      </c>
+      <c r="G2" t="n">
         <v>92200.07722403665</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>92200.07722403668</v>
+      </c>
+      <c r="I2" t="n">
         <v>92200.07722403666</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>92200.07722403668</v>
+      </c>
+      <c r="K2" t="n">
         <v>92200.07722403666</v>
       </c>
-      <c r="I2" t="n">
-        <v>92200.07722403668</v>
-      </c>
-      <c r="J2" t="n">
-        <v>92200.07722403665</v>
-      </c>
-      <c r="K2" t="n">
-        <v>92200.07722403664</v>
-      </c>
       <c r="L2" t="n">
-        <v>92200.07722403668</v>
+        <v>92200.07722403669</v>
       </c>
       <c r="M2" t="n">
         <v>93825.78098082147</v>
       </c>
       <c r="N2" t="n">
-        <v>93825.78098082154</v>
+        <v>93825.78098082147</v>
       </c>
       <c r="O2" t="n">
+        <v>93825.78098082147</v>
+      </c>
+      <c r="P2" t="n">
         <v>93825.78098082145</v>
-      </c>
-      <c r="P2" t="n">
-        <v>93825.78098082148</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>32598.54956978494</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>105245.2414652923</v>
+        <v>64353.58184153309</v>
       </c>
       <c r="F3" t="n">
-        <v>113617.025923871</v>
+        <v>113238.4356313707</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>26560.21475442308</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>100830.0540941888</v>
+        <v>66700.39569712243</v>
       </c>
       <c r="N3" t="n">
-        <v>82750.13805526368</v>
+        <v>82426.51302796692</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>130524.3309402252</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>159567.2971835641</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>21247.56725621348</v>
+        <v>21269.01475274295</v>
       </c>
       <c r="F4" t="n">
         <v>27684.07875020268</v>
@@ -26451,13 +26451,13 @@
         <v>33026.43656683595</v>
       </c>
       <c r="N4" t="n">
-        <v>42419.67665353613</v>
+        <v>42419.67665353611</v>
       </c>
       <c r="O4" t="n">
-        <v>42419.67665353614</v>
+        <v>42419.67665353612</v>
       </c>
       <c r="P4" t="n">
-        <v>42419.67665353614</v>
+        <v>42419.67665353612</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>65805.34318291312</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53609.02975154767</v>
+        <v>53689.36553183993</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-289222.6942765728</v>
+        <v>-334683.223060825</v>
       </c>
       <c r="C6" t="n">
-        <v>-147031.3936168629</v>
+        <v>-111144.0438129561</v>
       </c>
       <c r="D6" t="n">
-        <v>-164145.4089554407</v>
+        <v>-111144.0438129561</v>
       </c>
       <c r="E6" t="n">
-        <v>-109338.1565921292</v>
+        <v>-68805.288848143</v>
       </c>
       <c r="F6" t="n">
-        <v>-126819.2660558296</v>
+        <v>-126463.9001027119</v>
       </c>
       <c r="G6" t="n">
-        <v>-13202.24013195853</v>
+        <v>-13225.46447134119</v>
       </c>
       <c r="H6" t="n">
-        <v>-13202.24013195853</v>
+        <v>-13225.46447134116</v>
       </c>
       <c r="I6" t="n">
-        <v>-13202.24013195852</v>
+        <v>-13225.46447134117</v>
       </c>
       <c r="J6" t="n">
-        <v>-124216.7054769487</v>
+        <v>-187876.8131890473</v>
       </c>
       <c r="K6" t="n">
-        <v>-13202.24013195856</v>
+        <v>-13225.46447134117</v>
       </c>
       <c r="L6" t="n">
-        <v>-39762.4548863816</v>
+        <v>-13225.46447134115</v>
       </c>
       <c r="M6" t="n">
-        <v>-119113.8682184639</v>
+        <v>-84984.20982139758</v>
       </c>
       <c r="N6" t="n">
-        <v>-106859.648454068</v>
+        <v>-106536.0234267713</v>
       </c>
       <c r="O6" t="n">
-        <v>-24109.5103988044</v>
+        <v>-24109.51039880436</v>
       </c>
       <c r="P6" t="n">
-        <v>-24109.51039880437</v>
+        <v>-24109.51039880438</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>529.2391970873867</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>881.7274630188762</v>
+        <v>883.0487751947358</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>104.9433395672824</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>352.4882659314894</v>
+        <v>215.5335685868787</v>
       </c>
       <c r="F4" t="n">
-        <v>396.5330403658692</v>
+        <v>395.2117281900096</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>104.9433395672824</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>352.4882659314894</v>
+        <v>215.5335685868787</v>
       </c>
       <c r="N4" t="n">
-        <v>337.8563329288469</v>
+        <v>336.5350207529874</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>104.9433395672824</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>352.4882659314894</v>
+        <v>215.5335685868787</v>
       </c>
       <c r="N4" t="n">
-        <v>396.5330403658692</v>
+        <v>395.2117281900096</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>113.7278999628234</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>81.0172718863555</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>84.63380825304887</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>275.956562087696</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>370.1803477317474</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27625,64 +27625,64 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.4126214791313976</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>358.9907805655117</v>
-      </c>
-      <c r="W5" t="n">
-        <v>154.6625956268543</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>161.9268490649759</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>145.0586448487569</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>106.4637877701137</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27910,16 +27910,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>298.2998601569334</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>26.26237618689419</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,28 +35173,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>336.9931035151116</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>529.2391970873867</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="P8" t="n">
-        <v>529.2391970873867</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>529.2391970873869</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>149.0417929543167</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>529.2391970873867</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>529.2391970873869</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,7 +35337,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>60.8458552314346</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>881.7274630188763</v>
+        <v>825.3914732932092</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,16 +35422,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>881.7274630188763</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>48.37486006570271</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36121,19 +36121,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>756.3484258820586</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -37072,16 +37072,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>1050.672356668189</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K37" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467888</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M37" t="n">
         <v>480.360828703306</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209006</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,16 +37555,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>901.152332228356</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K40" t="n">
         <v>293.7695028348439</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37786,19 +37786,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>463.0908366609706</v>
+        <v>1008.744985840238</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>170.862691669754</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778278</v>
       </c>
       <c r="K43" t="n">
         <v>293.7695028348439</v>
@@ -37950,10 +37950,10 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
         <v>186.1274021209015</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>56.39912960647962</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>901.152332228356</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K46" t="n">
         <v>293.7695028348439</v>
